--- a/dev/modèle bon de commande vierge/modele_bdc_vierge_scdi.xlsx
+++ b/dev/modèle bon de commande vierge/modele_bdc_vierge_scdi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\LibreSQE\dev\modèle bon de commande vierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD03791-6AF4-4DCD-A2CE-DD1C4521F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E2E3F-51DF-48B2-B1A7-B44A11398636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quantitatif" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>Nom prestation</t>
   </si>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -558,6 +558,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -573,14 +583,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -655,22 +659,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>127001</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>372942</xdr:rowOff>
+      <xdr:colOff>793751</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
+        <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E62BF2-C9FA-1BD3-3898-523C5948D630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2879E644-4502-4B76-A9DC-0C2A3DB8A58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,8 +690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228601" y="9526"/>
-          <a:ext cx="590550" cy="363416"/>
+          <a:off x="127001" y="31750"/>
+          <a:ext cx="666750" cy="495432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,8 +971,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,67 +986,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1107,8 +1111,9 @@
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>28</v>
+      <c r="F12" s="28" t="e">
+        <f>IF(E12&gt;0,D12*E12,"")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1122,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="29"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28" t="str">
+        <f t="shared" ref="F13:F27" si="0">IF(E13&gt;0,D13*E13,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1125,7 +1133,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="29"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1133,7 +1144,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="29"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1141,7 +1155,10 @@
       <c r="C16" s="4"/>
       <c r="D16" s="29"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1149,7 +1166,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="29"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1157,7 +1177,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="29"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1165,7 +1188,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="29"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1173,7 +1199,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="29"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1181,7 +1210,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="29"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1189,7 +1221,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="29"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1197,7 +1232,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="29"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1205,7 +1243,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1213,7 +1254,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="29"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1221,7 +1265,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="29"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1229,7 +1276,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="29"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1237,7 +1287,10 @@
       <c r="C28" s="4"/>
       <c r="D28" s="29"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28" t="str">
+        <f>IF(E28&gt;0,D28*E28,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -1247,8 +1300,9 @@
       <c r="E29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>41</v>
+      <c r="F29" s="30" t="e">
+        <f>SUM(F12:F28)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,8 +1313,9 @@
       <c r="E30" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="31" t="s">
-        <v>42</v>
+      <c r="F30" s="49" t="e">
+        <f>0.2*F29</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,8 +1326,9 @@
       <c r="E31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="31" t="s">
-        <v>43</v>
+      <c r="F31" s="31" t="e">
+        <f>F30+F29</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,14 +1340,14 @@
       <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34"/>
@@ -1307,7 +1363,7 @@
       </c>
       <c r="D36" s="39">
         <f ca="1">TODAY()</f>
-        <v>45308</v>
+        <v>45632</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,14 +1385,14 @@
       <c r="D40"/>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42"/>
@@ -1357,7 +1413,10 @@
       <c r="C45" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" s="40">
+        <f ca="1">TODAY()</f>
+        <v>45632</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46"/>
@@ -1431,11 +1490,11 @@
       <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
@@ -2029,9 +2088,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2264,27 +2326,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF16ACF2-37E9-4949-9A93-88A3A015DDE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240AF456-82BA-4AF0-AA0F-2057DA65B299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efdd341-56d0-41e7-aab3-73531d8de268"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="283c0d33-edfc-4847-af07-30bb862e3054"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2309,9 +2359,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240AF456-82BA-4AF0-AA0F-2057DA65B299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF16ACF2-37E9-4949-9A93-88A3A015DDE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efdd341-56d0-41e7-aab3-73531d8de268"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="283c0d33-edfc-4847-af07-30bb862e3054"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>